--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_ann_auto.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_ann_auto.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="48">
   <si>
     <t>Sezione</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -208,7 +214,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -622,7 +628,7 @@
         <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>24</v>
@@ -634,6 +640,29 @@
         <v>13</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>14</v>
       </c>
     </row>
